--- a/Resources/data-template.xlsx
+++ b/Resources/data-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TechlinkProjects\mixer-control-globalver\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF827A-193E-46D0-9A68-8B32139D0F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA0B3D3-E4DA-4C41-9D2B-BA27D99A2208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F16F4896-5A00-4506-B4C6-D29130D26770}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="process_info" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">process_info!$A$1:$L$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">process_info!$A$1:$N$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
@@ -100,6 +100,16 @@
     <t>Mô tả bước
 Step description
 操作内容</t>
+  </si>
+  <si>
+    <t>Tổng số bao bột
+Number of powder bags
+粉包的总数</t>
+  </si>
+  <si>
+    <t>Số bao bột cần sau cấp dầu
+Number of bags of powder needed after applying oil
+加油后需要的粉包数</t>
   </si>
 </sst>
 </file>
@@ -107,8 +117,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -146,7 +156,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +166,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,55 +213,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -562,594 +593,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D81F9-0EEE-4FA0-8D73-C140CFE53E01}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="32.21875" style="6" customWidth="1"/>
-    <col min="13" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="25.6640625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="29.88671875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="29.88671875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="29" style="16" customWidth="1"/>
+    <col min="15" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="25.6640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="74.400000000000006" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" s="21" customFormat="1" ht="74.400000000000006" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A2" s="8">
+      <c r="M1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="19"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A2" s="4">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="10"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A3" s="8">
+      <c r="N2" s="14"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A3" s="4">
         <f t="shared" ref="A3:A15" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A4" s="8">
+      <c r="N3" s="14"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="10"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A5" s="8">
+      <c r="N4" s="14"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="10"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A6" s="8">
+      <c r="N5" s="14"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="10"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A7" s="8">
+      <c r="N6" s="14"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A8" s="8">
+      <c r="N7" s="14"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A9" s="8">
+      <c r="N8" s="14"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A10" s="8">
+      <c r="N9" s="14"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A11" s="8">
+      <c r="N10" s="14"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A12" s="8">
+      <c r="N11" s="14"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A13" s="8">
+      <c r="N12" s="14"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="11"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A14" s="8">
+      <c r="N13" s="15"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="11"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A15" s="8">
+      <c r="N14" s="15"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="11"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A16" s="8">
+      <c r="N15" s="15"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A16" s="4">
         <f t="shared" ref="A16:A21" si="1">ROW(A15)</f>
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A17" s="8">
+      <c r="M16" s="12"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.95" customHeight="1">
+      <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A18" s="8">
+      <c r="M17" s="12"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.95" customHeight="1">
+      <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A19" s="8">
+      <c r="M18" s="12"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.95" customHeight="1">
+      <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A20" s="8">
+      <c r="M19" s="12"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" ht="19.95" customHeight="1">
+      <c r="A20" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A21" s="8">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.95" customHeight="1">
+      <c r="A21" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="11"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="15"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertRows="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22:G1048576 F2:F1048576 H2:I1048576 J22:K1048576" xr:uid="{71B65B3D-3C5B-47CA-A9B2-AC239C73A7F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22:G1048576 F2:F1048576 H2:I1048576 J22:M1048576" xr:uid="{71B65B3D-3C5B-47CA-A9B2-AC239C73A7F4}">
       <formula1>"No,Yes"</formula1>
     </dataValidation>
   </dataValidations>
